--- a/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
+++ b/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\csii\main\csii\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="项目概述" sheetId="1" r:id="rId1"/>
@@ -20,12 +25,12 @@
     <definedName name="ProjectList">项目[项目]</definedName>
     <definedName name="ProjectStart">任务[[#Headers],[项目]]</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="178">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -61,10 +66,6 @@
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统稳定性强化：完成数据库主备以及表同步，确保数据安全。</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -563,10 +564,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>朱旭坤</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>BA</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -576,10 +573,6 @@
   </si>
   <si>
     <t>杨晓敏</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>BN</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -647,17 +640,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Sprint3：实现其他系统功能</t>
-  </si>
-  <si>
-    <t>Sprint3：实现其他系统功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint4：系统页面与代码优化</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>测试服务器搭建</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -690,14 +672,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>完成核心3页面提交</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库信息检索与操作，简历上传与下载</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>回顾会议：项目展示与问题收集</t>
   </si>
   <si>
@@ -725,18 +699,85 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>Sprint3：实现页面基本功能</t>
+  </si>
+  <si>
+    <t>Sprint3：实现页面基本功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库信息检索与操作，简历上传与下载
+系统稳定性强化：完成数据库主备以及表同步，确保数据安全。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint4：系统功能扩展与代码优化</t>
+  </si>
+  <si>
+    <t>Sprint4：系统功能扩展与代码优化</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>李军</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现页面基本功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>完成“三方原型”中“basic info”部分</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>完成“三方原型”中“CSI interview/HSBC interview”部分</t>
+    <t>完成“三方原型”中“basic info”部分</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端联通</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN、DB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>李军</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>login，mainpage,basic info,csiifb page</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端联通以及页面逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>custfb,detail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面测试与校验</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19">
     <font>
       <sz val="9"/>
@@ -878,7 +919,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,12 +947,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,44 +1171,32 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1201,7 +1224,7 @@
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1213,7 +1236,7 @@
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1237,7 +1260,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1250,7 +1273,7 @@
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1266,7 +1289,7 @@
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1279,7 +1302,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1292,7 +1315,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1317,10 +1340,10 @@
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1335,7 +1358,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1348,11 +1371,11 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1365,7 +1388,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1415,7 +1438,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1462,7 +1485,7 @@
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3378,7 +3401,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3398,7 +3421,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3433,7 +3456,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3453,7 +3476,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3488,7 +3511,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3508,7 +3531,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3543,7 +3566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3563,7 +3586,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3598,7 +3621,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3618,7 +3641,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3641,7 +3664,7 @@
       <calculatedColumnFormula>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="进度" dataDxfId="15" dataCellStyle="Chart">
-      <calculatedColumnFormula>REPT("|",[[  ]]*175)</calculatedColumnFormula>
+      <calculatedColumnFormula>REPT("|",项目[[  ]]*175)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name=" 开始" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula array="1">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</calculatedColumnFormula>
@@ -3662,9 +3685,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="任务" displayName="任务" ref="B3:H18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:H18">
-    <filterColumn colId="6"/>
-  </autoFilter>
+  <autoFilter ref="B3:H18"/>
   <tableColumns count="7">
     <tableColumn id="3" name="开始" dataDxfId="6"/>
     <tableColumn id="4" name="结束" dataDxfId="5"/>
@@ -3909,15 +3930,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3934,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="52.5" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1">
@@ -3959,15 +3980,15 @@
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="7">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
-        <v>1E-4</v>
+        <v>1.0001</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f>REPT("|",[[  ]]*175)</f>
-        <v/>
+        <f>REPT("|",项目[[  ]]*175)</f>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E4" s="8">
         <f>MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
@@ -3978,20 +3999,20 @@
         <v>43588</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="7">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
-        <v>1E-4</v>
+        <v>0.66676666666666662</v>
       </c>
       <c r="D5" s="12" t="str">
-        <f>REPT("|",[[  ]]*175)</f>
-        <v/>
+        <f>REPT("|",项目[[  ]]*175)</f>
+        <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E5" s="8">
         <f t="array" ref="E5">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
@@ -4002,20 +4023,20 @@
         <v>43602</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C6" s="7">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
-        <v>1E-4</v>
+        <v>0.2001</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f>REPT("|",[[  ]]*175)</f>
-        <v/>
+        <f>REPT("|",项目[[  ]]*175)</f>
+        <v>|||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E6" s="8">
         <f t="array" ref="E6">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
@@ -4026,19 +4047,19 @@
         <v>43616</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="31.5" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C7" s="10">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
         <v>1E-4</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f>REPT("|",[[  ]]*175)</f>
+        <f>REPT("|",项目[[  ]]*175)</f>
         <v/>
       </c>
       <c r="E7" s="11">
@@ -4049,28 +4070,28 @@
         <f t="array" ref="F7">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
         <v>43630</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
+      <c r="G7" s="59" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1">
       <c r="B10" s="46" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
       <c r="B11" s="47" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1">
       <c r="B12" s="47" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4089,15 +4110,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4133,7 +4154,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>5</v>
@@ -4147,19 +4168,19 @@
         <v>43588</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>144</v>
       </c>
       <c r="F4" s="52">
-        <v>0</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4170,18 +4191,18 @@
         <v>43588</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="F5" s="52">
-        <v>0</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="49">
@@ -4191,19 +4212,19 @@
         <v>43588</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>167</v>
+        <v>139</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>168</v>
       </c>
       <c r="F6" s="52">
-        <v>0</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4214,16 +4235,18 @@
         <v>43588</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>157</v>
+        <v>139</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="F7" s="52">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1">
       <c r="B8" s="11">
@@ -4233,16 +4256,20 @@
         <v>43602</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
       <c r="B9" s="11">
@@ -4252,13 +4279,16 @@
         <v>43602</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -4270,139 +4300,172 @@
         <v>43602</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B11" s="49">
+        <v>43605</v>
+      </c>
+      <c r="C11" s="49">
+        <v>43616</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B12" s="49">
+        <v>43605</v>
+      </c>
+      <c r="C12" s="49">
+        <v>43616</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B13" s="49">
+        <v>43605</v>
+      </c>
+      <c r="C13" s="49">
+        <v>43616</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B11" s="57">
+      <c r="G13" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B14" s="49">
         <v>43605</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C14" s="49">
         <v>43616</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B12" s="57">
+      <c r="D14" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="49">
         <v>43605</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C15" s="49">
         <v>43616</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="57">
-        <v>43605</v>
-      </c>
-      <c r="C13" s="57">
-        <v>43616</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B14" s="57">
-        <v>43605</v>
-      </c>
-      <c r="C14" s="57">
-        <v>43616</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B15" s="57">
+      <c r="D15" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B16" s="49">
         <v>43619</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C16" s="49">
         <v>43630</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B16" s="57">
+      <c r="D16" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B17" s="49">
         <v>43619</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C17" s="49">
         <v>43630</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B17" s="57">
+      <c r="D17" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="49">
         <v>43619</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C18" s="49">
         <v>43630</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="2:8" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="B18" s="57">
-        <v>43619</v>
-      </c>
-      <c r="C18" s="57">
-        <v>43630</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="59"/>
+      <c r="D18" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -4421,8 +4484,8 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
@@ -4450,21 +4513,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="X19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="X13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4475,7 +4538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4485,7 +4548,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
@@ -4497,9 +4560,9 @@
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4509,345 +4572,345 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="13.5">
+    <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.5">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="21">
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="21">
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="13.5">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="13.5">
+    <row r="7" spans="1:8">
       <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="13.5">
+    <row r="8" spans="1:8">
       <c r="A8" s="21">
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="13.5">
+    <row r="9" spans="1:8">
       <c r="A9" s="21">
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5">
+    <row r="10" spans="1:8">
       <c r="A10" s="21">
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" ht="13.5">
+    <row r="11" spans="1:8">
       <c r="A11" s="21">
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" ht="13.5">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>11</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5">
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>14</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" ht="13.5">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>15</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" ht="13.5">
+    <row r="16" spans="1:8">
       <c r="A16" s="21">
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" ht="13.5">
+    <row r="17" spans="1:8">
       <c r="A17" s="21">
         <v>18</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>54</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" ht="13.5">
+    <row r="18" spans="1:8">
       <c r="A18" s="21">
         <v>18</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>127</v>
-      </c>
       <c r="D18" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
     </row>
-    <row r="20" spans="1:8" ht="13.5">
+    <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -4857,44 +4920,44 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="G21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="H21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.5">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="21">
         <v>2</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="29">
         <v>43669</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="21"/>
@@ -4906,41 +4969,41 @@
         <v>3</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="F23" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="13.5">
+    <row r="24" spans="1:8">
       <c r="A24" s="21">
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>61</v>
-      </c>
       <c r="F24" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -4950,36 +5013,36 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="13.5">
+    <row r="26" spans="1:8">
       <c r="A26" s="21">
         <v>5</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -4990,16 +5053,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -5010,16 +5073,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>73</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5030,16 +5093,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5050,16 +5113,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="D30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -5070,16 +5133,16 @@
         <v>9.1</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="D31" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -5090,16 +5153,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>83</v>
-      </c>
       <c r="D32" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -5110,16 +5173,16 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B33" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="D33" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -5130,36 +5193,36 @@
         <v>10</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" ht="13.5">
+    <row r="35" spans="1:8">
       <c r="A35" s="21">
         <v>11</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -5170,56 +5233,56 @@
         <v>12</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" ht="13.5">
+    <row r="37" spans="1:8">
       <c r="A37" s="21">
         <v>13</v>
       </c>
       <c r="B37" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="40" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="13.5">
+    <row r="38" spans="1:8">
       <c r="A38" s="21">
         <v>14</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="29">
         <v>43669</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -5230,16 +5293,16 @@
         <v>15</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="D39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -5250,24 +5313,24 @@
         <v>16</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="D40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="42" spans="1:8" ht="13.5">
+    <row r="42" spans="1:8">
       <c r="A42" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -5277,195 +5340,195 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" ht="13.5">
+    <row r="43" spans="1:8">
       <c r="A43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="E43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="F43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="H43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.5">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="21">
         <v>1</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="29">
         <v>43669</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8" ht="13.5">
+    <row r="45" spans="1:8">
       <c r="A45" s="21">
         <v>2</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8" ht="13.5">
+    <row r="46" spans="1:8">
       <c r="A46" s="21">
         <v>3</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8" ht="13.5">
+    <row r="47" spans="1:8">
       <c r="A47" s="21">
         <v>4</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="1:8" ht="13.5">
+    <row r="48" spans="1:8">
       <c r="A48" s="21">
         <v>5</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="1:8" ht="13.5">
+    <row r="49" spans="1:8">
       <c r="A49" s="21">
         <v>6</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="1:8" ht="13.5">
+    <row r="50" spans="1:8">
       <c r="A50" s="21">
         <v>7</v>
       </c>
       <c r="B50" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="D50" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>107</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" ht="13.5">
+    <row r="51" spans="1:8">
       <c r="A51" s="21">
         <v>8</v>
       </c>
       <c r="B51" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>110</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" ht="13.5">
+    <row r="52" spans="1:8">
       <c r="A52" s="21">
         <v>9</v>
       </c>
       <c r="B52" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="D52" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="33" t="s">
         <v>112</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>113</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
@@ -5479,45 +5542,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>137</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5527,29 +5598,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
+++ b/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="项目概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="暂定数据内容" sheetId="4" r:id="rId4"/>
     <sheet name="Resouce" sheetId="5" r:id="rId5"/>
     <sheet name="设备" sheetId="6" r:id="rId6"/>
+    <sheet name="业务流程与逻辑" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">任务详细信息!$3:$3</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="196">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -673,9 +674,6 @@
   </si>
   <si>
     <t>回顾会议：项目展示与问题收集</t>
-  </si>
-  <si>
-    <t>回顾会议：项目展示与问题收集</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -700,10 +698,6 @@
   </si>
   <si>
     <t>Sprint3：实现页面基本功能</t>
-  </si>
-  <si>
-    <t>Sprint3：实现页面基本功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>数据库信息检索与操作，简历上传与下载
@@ -714,10 +708,6 @@
     <t>Sprint4：系统功能扩展与代码优化</t>
   </si>
   <si>
-    <t>Sprint4：系统功能扩展与代码优化</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -771,6 +761,103 @@
   </si>
   <si>
     <t>页面测试与校验</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>张峰</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BN</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2019-06-03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加入</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint3：实现页面基本功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint4：实现页面基本功能 -extra</t>
+  </si>
+  <si>
+    <t>Sprint4：实现页面基本功能 -extra</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint5：系统功能扩展与代码优化</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint4：实现页面基本功能 -extra</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>login page: rename to 用户名/密码</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>main page:查询框：“候选人姓名或电话”查询</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>main page: step 与 status 数据显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>step:初始录入，中软面试，客户面试
+status:progressing/csi-pass/cai-failed/cui-pass/cui-failed</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic info:页面校验与测试</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail page:三部分信息显示（to do…）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>csiifb page:候选人姓名，电话关联查询；页面提交逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>custfb page:候选人姓名，电话关联查询；页面提交逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转逻辑与业务数据逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前面试部门（A部门）失败，则可被推送至其他部门（比如B部门）进行面试，此时需要hr或rm在系统中再新增一条信息(zhangsan,17711119999,B部门)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一候选人（姓名，电话）一次只能面试一个部门，比如(zhangsan,17711119999)不能同时推送给不同的两个部门面试，若首次推送给A部门，则需走完全部的流程(zhangsan,17711119999,A部门)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一候选人，同一部门只能由一个面试官填写反馈，若反馈提交，不可被二次修改</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -918,6 +1005,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1017,7 +1126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,6 +1306,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3656,8 +3795,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目" displayName="项目" ref="B3:G7" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="B3:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目" displayName="项目" ref="B3:G8" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="B3:G8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="项目" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Indent"/>
     <tableColumn id="2" name="  " totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16">
@@ -3684,8 +3823,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="任务" displayName="任务" ref="B3:H18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:H18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="任务" displayName="任务" ref="B3:H26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B3:H26"/>
   <tableColumns count="7">
     <tableColumn id="3" name="开始" dataDxfId="6"/>
     <tableColumn id="4" name="结束" dataDxfId="5"/>
@@ -3935,10 +4074,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3999,7 +4138,7 @@
         <v>43588</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1">
@@ -4028,7 +4167,7 @@
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C6" s="7">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
@@ -4047,51 +4186,73 @@
         <v>43616</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1">
+      <c r="B7" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="63">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
         <v>1E-4</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="64" t="str">
         <f>REPT("|",项目[[  ]]*175)</f>
         <v/>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="65">
         <f t="array" ref="E7">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
         <v>43619</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="65">
         <f t="array" ref="F7">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
-        <v>43630</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1">
-      <c r="B9" s="1" t="s">
+        <v>43622</v>
+      </c>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="10">
+        <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>REPT("|",项目[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E8" s="11">
+        <f t="array" ref="E8">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="array" ref="F8">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1">
+      <c r="B11" s="46" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
-      <c r="B10" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1">
       <c r="B12" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1">
+      <c r="B13" s="47" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4115,10 +4276,10 @@
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4128,7 +4289,7 @@
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4215,7 +4376,7 @@
         <v>139</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" s="52">
         <v>1</v>
@@ -4244,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -4259,7 +4420,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" s="17">
         <v>0.5</v>
@@ -4268,7 +4429,7 @@
         <v>133</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
@@ -4288,7 +4449,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -4303,13 +4464,13 @@
         <v>141</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -4321,10 +4482,10 @@
         <v>43616</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="17">
         <v>0.5</v>
@@ -4333,7 +4494,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4344,19 +4505,19 @@
         <v>43616</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4367,10 +4528,10 @@
         <v>43616</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="17">
         <v>0</v>
@@ -4388,16 +4549,16 @@
         <v>43616</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H14" s="51"/>
     </row>
@@ -4409,14 +4570,14 @@
         <v>43616</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H15" s="51"/>
     </row>
@@ -4425,52 +4586,224 @@
         <v>43619</v>
       </c>
       <c r="C16" s="49">
-        <v>43630</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="51"/>
+        <v>43622</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="B17" s="49">
         <v>43619</v>
       </c>
       <c r="C17" s="49">
-        <v>43630</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+        <v>43622</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="2:8" s="54" customFormat="1" ht="29.25" customHeight="1">
       <c r="B18" s="49">
         <v>43619</v>
       </c>
       <c r="C18" s="49">
+        <v>43622</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B19" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C19" s="49">
+        <v>43622</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B20" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C20" s="49">
+        <v>43622</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C21" s="49">
+        <v>43622</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C22" s="49">
+        <v>43622</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B23" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C23" s="49">
+        <v>43622</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C24" s="49">
         <v>43630</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="51"/>
+      <c r="D24" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C25" s="49">
+        <v>43630</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="49">
+        <v>43619</v>
+      </c>
+      <c r="C26" s="49">
+        <v>43630</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D18">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D26">
       <formula1>ProjectList</formula1>
     </dataValidation>
   </dataValidations>
@@ -4488,7 +4821,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
+          <x14:cfRule type="iconSet" priority="31" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4504,7 +4837,159 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F4:F18</xm:sqref>
+          <xm:sqref>F24:F26 F4:F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{B435805B-7BD1-4063-BC6F-CA2D25E134A4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{600FCF0D-B2B4-4001-9AC8-579A959387E0}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{8F9239BA-6416-4120-BC6D-E4AB13B0CA9C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{4120B5AF-5477-4E8D-9700-8B9BFEC2B432}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{865D8E93-2FF2-46CA-A20D-9EB148C04533}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{3C441F7D-416C-4EE1-A41F-2983A02B8B09}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{62FC8A42-B62E-46D1-B5C7-34FEE4ACB798}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{490068AE-02F6-4A80-8303-D438DE1E128F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5543,15 +6028,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>149</v>
       </c>
@@ -5559,15 +6047,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
         <v>133</v>
       </c>
@@ -5575,25 +6063,37 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="57" t="s">
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5627,6 +6127,38 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
+++ b/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目概述" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="203">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -740,10 +740,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>DB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>李军</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -764,100 +760,161 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>张峰</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>BN</t>
+    <t>Sprint3：实现页面基本功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint4：实现页面基本功能 -extra</t>
+  </si>
+  <si>
+    <t>Sprint4：实现页面基本功能 -extra</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint4：实现页面基本功能 -extra</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>login page: rename to 用户名/密码</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>main page:查询框：“候选人姓名或电话”查询</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>main page: step 与 status 数据显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>step:初始录入，中软面试，客户面试
+status:progressing/csi-pass/cai-failed/cui-pass/cui-failed</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic info:页面校验与测试</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail page:三部分信息显示（to do…）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>csiifb page:候选人姓名，电话关联查询；页面提交逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>custfb page:候选人姓名，电话关联查询；页面提交逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转逻辑与业务数据逻辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前面试部门（A部门）失败，则可被推送至其他部门（比如B部门）进行面试，此时需要hr或rm在系统中再新增一条信息(zhangsan,17711119999,B部门)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一候选人（姓名，电话）一次只能面试一个部门，比如(zhangsan,17711119999)不能同时推送给不同的两个部门面试，若首次推送给A部门，则需走完全部的流程(zhangsan,17711119999,A部门)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一候选人，同一部门只能由一个面试官填写反馈，若反馈提交，不可被二次修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint5：系统完善与快照版本上线</t>
+  </si>
+  <si>
+    <t>Sprint5：系统完善与快照版本上线</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试域名与空间准备</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试快照版本上线</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统内测与修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint6：UAT，封版与系统1.0上线</t>
+  </si>
+  <si>
+    <t>Sprint6：UAT，封版与系统1.0上线</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint7：系统功能扩展与代码优化</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT测试人员准备，需要至少三个角色的人(真实用户)，需要2019-06-14之前准备好</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2019-06-03</t>
+      <t>生产环境准备，包括</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>域名注册</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>加入</t>
+      <t>与</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint3：实现页面基本功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint4：实现页面基本功能 -extra</t>
-  </si>
-  <si>
-    <t>Sprint4：实现页面基本功能 -extra</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint5：系统功能扩展与代码优化</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint4：实现页面基本功能 -extra</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Five</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>login page: rename to 用户名/密码</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>main page:查询框：“候选人姓名或电话”查询</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>main page: step 与 status 数据显示</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>step:初始录入，中软面试，客户面试
-status:progressing/csi-pass/cai-failed/cui-pass/cui-failed</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic info:页面校验与测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail page:三部分信息显示（to do…）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>csiifb page:候选人姓名，电话关联查询；页面提交逻辑</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>custfb page:候选人姓名，电话关联查询；页面提交逻辑</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面跳转逻辑与业务数据逻辑</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>若当前面试部门（A部门）失败，则可被推送至其他部门（比如B部门）进行面试，此时需要hr或rm在系统中再新增一条信息(zhangsan,17711119999,B部门)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一候选人（姓名，电话）一次只能面试一个部门，比如(zhangsan,17711119999)不能同时推送给不同的两个部门面试，若首次推送给A部门，则需走完全部的流程(zhangsan,17711119999,A部门)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一候选人，同一部门只能由一个面试官填写反馈，若反馈提交，不可被二次修改</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空间(PHP+Mysql)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的准备，需要2019-06-28之前准备好</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +922,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -1027,6 +1084,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1126,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,6 +1401,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1708,7 +1776,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8942682" y="200025"/>
+          <a:off x="9476082" y="200025"/>
           <a:ext cx="1544341" cy="342901"/>
           <a:chOff x="3866284" y="6505574"/>
           <a:chExt cx="1543916" cy="342901"/>
@@ -2623,7 +2691,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9888680" y="200025"/>
+          <a:off x="10364930" y="200025"/>
           <a:ext cx="0" cy="342901"/>
           <a:chOff x="3627013" y="6505574"/>
           <a:chExt cx="1393039" cy="342901"/>
@@ -3795,8 +3863,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目" displayName="项目" ref="B3:G8" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="B3:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="项目" displayName="项目" ref="B3:G10" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="B3:G10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="项目" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Indent"/>
     <tableColumn id="2" name="  " totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16">
@@ -3823,8 +3891,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="任务" displayName="任务" ref="B3:H26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="任务" displayName="任务" ref="B3:H33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
     <tableColumn id="3" name="开始" dataDxfId="6"/>
     <tableColumn id="4" name="结束" dataDxfId="5"/>
@@ -4074,16 +4142,16 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.28515625" style="1" customWidth="1"/>
@@ -4167,7 +4235,7 @@
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="7">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
@@ -4191,15 +4259,15 @@
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1">
       <c r="B7" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="63">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
-        <v>1E-4</v>
+        <v>0.75009999999999999</v>
       </c>
       <c r="D7" s="64" t="str">
         <f>REPT("|",项目[[  ]]*175)</f>
-        <v/>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E7" s="65">
         <f t="array" ref="E7">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
@@ -4211,47 +4279,91 @@
       </c>
       <c r="G7" s="66"/>
     </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="10">
+    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="B8" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="63">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
         <v>1E-4</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="64" t="str">
         <f>REPT("|",项目[[  ]]*175)</f>
         <v/>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="65">
         <f t="array" ref="E8">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
+        <v>43626</v>
+      </c>
+      <c r="F8" s="65">
+        <f t="array" ref="F8">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
+        <v>43630</v>
+      </c>
+      <c r="G8" s="66"/>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="B9" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="63">
+        <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D9" s="64" t="str">
+        <f>REPT("|",项目[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E9" s="65">
+        <f t="array" ref="E9">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
+        <v>43634</v>
+      </c>
+      <c r="F9" s="65">
+        <f t="array" ref="F9">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
+        <v>43644</v>
+      </c>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="10">
+        <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>REPT("|",项目[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E10" s="11">
+        <f t="array" ref="E10">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="11">
-        <f t="array" ref="F8">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
+      <c r="F10" s="11">
+        <f t="array" ref="F10">MAX(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[[开始]:[结束]]))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G10" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="2:7" ht="18" customHeight="1">
+      <c r="B12" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="46" t="s">
+    <row r="13" spans="2:7" ht="18" customHeight="1">
+      <c r="B13" s="46" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1">
-      <c r="B12" s="47" t="s">
+    <row r="14" spans="2:7" ht="18" customHeight="1">
+      <c r="B14" s="47" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1">
-      <c r="B13" s="47" t="s">
+    <row r="15" spans="2:7" ht="18" customHeight="1">
+      <c r="B15" s="47" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4276,10 +4388,10 @@
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4287,7 +4399,7 @@
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="53.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
@@ -4449,7 +4561,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -4485,7 +4597,7 @@
         <v>158</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="17">
         <v>0.5</v>
@@ -4494,7 +4606,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4508,16 +4620,16 @@
         <v>158</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4531,7 +4643,7 @@
         <v>158</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="17">
         <v>0</v>
@@ -4552,13 +4664,13 @@
         <v>158</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" s="51"/>
     </row>
@@ -4589,13 +4701,13 @@
         <v>43622</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>133</v>
@@ -4610,13 +4722,13 @@
         <v>43622</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>133</v>
@@ -4631,19 +4743,19 @@
         <v>43622</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>133</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4654,10 +4766,10 @@
         <v>43622</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F19" s="17">
         <v>0</v>
@@ -4666,7 +4778,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4677,13 +4789,13 @@
         <v>43622</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="67" t="s">
         <v>162</v>
@@ -4698,19 +4810,19 @@
         <v>43622</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F21" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="67" t="s">
         <v>162</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
@@ -4721,16 +4833,16 @@
         <v>43622</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="67" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H22" s="68"/>
     </row>
@@ -4742,68 +4854,199 @@
         <v>43622</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F23" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H23" s="61"/>
     </row>
     <row r="24" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="B24" s="49">
-        <v>43619</v>
+        <v>43626</v>
       </c>
       <c r="C24" s="49">
         <v>43630</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="49">
-        <v>43619</v>
+        <v>43626</v>
       </c>
       <c r="C25" s="49">
         <v>43630</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="B26" s="49">
-        <v>43619</v>
+        <v>43626</v>
       </c>
       <c r="C26" s="49">
         <v>43630</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B27" s="49">
+        <v>43626</v>
+      </c>
+      <c r="C27" s="49">
+        <v>43630</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="49">
+        <v>43626</v>
+      </c>
+      <c r="C28" s="49">
+        <v>43630</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="61"/>
+    </row>
+    <row r="29" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B29" s="49">
+        <v>43634</v>
+      </c>
+      <c r="C29" s="49">
+        <v>43644</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="61"/>
+    </row>
+    <row r="30" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B30" s="49">
+        <v>43634</v>
+      </c>
+      <c r="C30" s="49">
+        <v>43644</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="61"/>
+    </row>
+    <row r="31" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B31" s="49">
+        <v>43647</v>
+      </c>
+      <c r="C31" s="49">
+        <v>43658</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="51"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B32" s="49">
+        <v>43647</v>
+      </c>
+      <c r="C32" s="49">
+        <v>43658</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="2:8" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="B33" s="49">
+        <v>43647</v>
+      </c>
+      <c r="C33" s="49">
+        <v>43658</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D26">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D33">
       <formula1>ProjectList</formula1>
     </dataValidation>
   </dataValidations>
@@ -4821,7 +5064,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
+          <x14:cfRule type="iconSet" priority="39" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4837,10 +5080,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F24:F26 F4:F15</xm:sqref>
+          <xm:sqref>F31:F33 F4:F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{B435805B-7BD1-4063-BC6F-CA2D25E134A4}">
+          <x14:cfRule type="iconSet" priority="21" id="{B435805B-7BD1-4063-BC6F-CA2D25E134A4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4859,7 +5102,121 @@
           <xm:sqref>F20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{600FCF0D-B2B4-4001-9AC8-579A959387E0}">
+          <x14:cfRule type="iconSet" priority="15" id="{8F9239BA-6416-4120-BC6D-E4AB13B0CA9C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{4120B5AF-5477-4E8D-9700-8B9BFEC2B432}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{865D8E93-2FF2-46CA-A20D-9EB148C04533}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{3C441F7D-416C-4EE1-A41F-2983A02B8B09}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{62FC8A42-B62E-46D1-B5C7-34FEE4ACB798}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{FE40CB0D-7D6B-4B58-992D-901253D66A26}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F23:F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{231130CE-AC51-41B6-B9C1-5276E5813F52}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4878,7 +5235,7 @@
           <xm:sqref>F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{8F9239BA-6416-4120-BC6D-E4AB13B0CA9C}">
+          <x14:cfRule type="iconSet" priority="6" id="{0099593B-D8A3-459F-A20F-CF50D1E5CFAD}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4894,10 +5251,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
+          <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{4120B5AF-5477-4E8D-9700-8B9BFEC2B432}">
+          <x14:cfRule type="iconSet" priority="5" id="{C372F23A-AC51-4253-A434-AABE3220AE02}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4913,10 +5270,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
+          <xm:sqref>F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{865D8E93-2FF2-46CA-A20D-9EB148C04533}">
+          <x14:cfRule type="iconSet" priority="4" id="{AFE65F8A-C75E-45A8-BDB2-5A2AEE6A618C}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4932,10 +5289,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F17</xm:sqref>
+          <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{3C441F7D-416C-4EE1-A41F-2983A02B8B09}">
+          <x14:cfRule type="iconSet" priority="41" id="{36C23A30-D67B-440D-8911-524FABCDD9A4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4951,10 +5308,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F18</xm:sqref>
+          <xm:sqref>F28:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{62FC8A42-B62E-46D1-B5C7-34FEE4ACB798}">
+          <x14:cfRule type="iconSet" priority="1" id="{261A9095-4988-4640-85F9-C4FA8CB64C4E}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4970,26 +5327,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{490068AE-02F6-4A80-8303-D438DE1E128F}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F23</xm:sqref>
+          <xm:sqref>F30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6028,10 +6366,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6039,7 +6377,7 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
         <v>149</v>
       </c>
@@ -6047,7 +6385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
@@ -6055,7 +6393,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>133</v>
       </c>
@@ -6063,7 +6401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
         <v>162</v>
       </c>
@@ -6071,24 +6409,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
+    <row r="5" spans="1:2">
+      <c r="A5" s="57"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -6134,7 +6459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -6142,17 +6467,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
+++ b/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
@@ -4145,7 +4145,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="C7" s="63">
         <f>IFERROR((SUMIFS(任务[完成],任务[项目],项目[[#This Row],[项目]])/COUNTIFS(任务[项目],项目[[#This Row],[项目]]))+0.0001,0.0001)</f>
-        <v>0.75009999999999999</v>
+        <v>0.87509999999999999</v>
       </c>
       <c r="D7" s="64" t="str">
         <f>REPT("|",项目[[  ]]*175)</f>
-        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E7" s="65">
         <f t="array" ref="E7">MIN(IF((任务[项目]=项目[[#This Row],[项目]])*(任务[开始]&gt;0),任务[开始]))</f>
@@ -4391,7 +4391,7 @@
   <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4772,7 +4772,7 @@
         <v>185</v>
       </c>
       <c r="F19" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>133</v>
@@ -5064,7 +5064,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
+          <x14:cfRule type="iconSet" priority="40" id="{CDDC0642-D70E-42D1-A353-7C947DFC3389}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5083,7 +5083,7 @@
           <xm:sqref>F31:F33 F4:F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{B435805B-7BD1-4063-BC6F-CA2D25E134A4}">
+          <x14:cfRule type="iconSet" priority="22" id="{B435805B-7BD1-4063-BC6F-CA2D25E134A4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5102,7 +5102,7 @@
           <xm:sqref>F20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{8F9239BA-6416-4120-BC6D-E4AB13B0CA9C}">
+          <x14:cfRule type="iconSet" priority="16" id="{8F9239BA-6416-4120-BC6D-E4AB13B0CA9C}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5121,7 +5121,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{4120B5AF-5477-4E8D-9700-8B9BFEC2B432}">
+          <x14:cfRule type="iconSet" priority="14" id="{4120B5AF-5477-4E8D-9700-8B9BFEC2B432}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5140,7 +5140,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{865D8E93-2FF2-46CA-A20D-9EB148C04533}">
+          <x14:cfRule type="iconSet" priority="13" id="{865D8E93-2FF2-46CA-A20D-9EB148C04533}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5159,7 +5159,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{3C441F7D-416C-4EE1-A41F-2983A02B8B09}">
+          <x14:cfRule type="iconSet" priority="12" id="{3C441F7D-416C-4EE1-A41F-2983A02B8B09}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5178,26 +5178,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{62FC8A42-B62E-46D1-B5C7-34FEE4ACB798}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{FE40CB0D-7D6B-4B58-992D-901253D66A26}">
+          <x14:cfRule type="iconSet" priority="9" id="{FE40CB0D-7D6B-4B58-992D-901253D66A26}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5216,7 +5197,7 @@
           <xm:sqref>F23:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{231130CE-AC51-41B6-B9C1-5276E5813F52}">
+          <x14:cfRule type="iconSet" priority="8" id="{231130CE-AC51-41B6-B9C1-5276E5813F52}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5235,7 +5216,7 @@
           <xm:sqref>F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{0099593B-D8A3-459F-A20F-CF50D1E5CFAD}">
+          <x14:cfRule type="iconSet" priority="7" id="{0099593B-D8A3-459F-A20F-CF50D1E5CFAD}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5254,7 +5235,7 @@
           <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{C372F23A-AC51-4253-A434-AABE3220AE02}">
+          <x14:cfRule type="iconSet" priority="6" id="{C372F23A-AC51-4253-A434-AABE3220AE02}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5273,7 +5254,7 @@
           <xm:sqref>F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{AFE65F8A-C75E-45A8-BDB2-5A2AEE6A618C}">
+          <x14:cfRule type="iconSet" priority="5" id="{AFE65F8A-C75E-45A8-BDB2-5A2AEE6A618C}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5292,7 +5273,7 @@
           <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{36C23A30-D67B-440D-8911-524FABCDD9A4}">
+          <x14:cfRule type="iconSet" priority="42" id="{36C23A30-D67B-440D-8911-524FABCDD9A4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5311,7 +5292,7 @@
           <xm:sqref>F28:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{261A9095-4988-4640-85F9-C4FA8CB64C4E}">
+          <x14:cfRule type="iconSet" priority="2" id="{261A9095-4988-4640-85F9-C4FA8CB64C4E}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5328,6 +5309,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{23ABDB81-5398-4712-A1E2-A6F0169B0F9A}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
+++ b/doc/招聘工具Phase1开发计划(4Sprint)_V1.1_20190429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="项目概述" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Resouce" sheetId="5" r:id="rId5"/>
     <sheet name="设备" sheetId="6" r:id="rId6"/>
     <sheet name="业务流程与逻辑" sheetId="7" r:id="rId7"/>
+    <sheet name="department" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">任务详细信息!$3:$3</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="214">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -915,6 +916,50 @@
   </si>
   <si>
     <t>TBC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBS</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -4390,7 +4435,7 @@
   </sheetPr>
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -6460,7 +6505,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6478,6 +6523,66 @@
     <row r="3" spans="1:1">
       <c r="A3" s="18" t="s">
         <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
